--- a/SERIE2_PARCIALSO2.xlsx
+++ b/SERIE2_PARCIALSO2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorgi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorgi\Documents\PARCIALSO2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>2^0</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Desbordamiento de Buffer, no se encuentra el numero de orden en la tabla de paginas 3B25, solamente llega hasta la 5.</t>
+  </si>
+  <si>
+    <t>JORGE LIZANDRO CASTANEDA CHOY</t>
+  </si>
+  <si>
+    <t>9959 - 18 - 4964.</t>
   </si>
 </sst>
 </file>
@@ -233,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,24 +275,27 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -317,8 +326,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1288019</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>12652</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171402</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -899,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A19:V38"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,21 +928,31 @@
     <col min="22" max="22" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="12:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="12:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V19" s="18"/>
+      <c r="V19" s="13"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V20" s="18"/>
+      <c r="V20" s="13"/>
     </row>
     <row r="26" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1071,7 +1090,7 @@
       <c r="H34" s="10">
         <v>11</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1102,12 +1121,12 @@
       <c r="I37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="J37" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J38" s="17"/>
+      <c r="J38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
